--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-01_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-01_valid.xlsx
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BO90">
         <v>0</v>
@@ -29990,10 +29990,10 @@
         <v>0</v>
       </c>
       <c r="CZ90">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="DA90">
-        <v>0.2907803901457622</v>
+        <v>0.2914963805992228</v>
       </c>
     </row>
     <row r="91" spans="1:105">
@@ -32932,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="BN100">
-        <v>0</v>
+        <v>64.3231441048035</v>
       </c>
       <c r="BO100">
         <v>0</v>
@@ -33160,10 +33160,10 @@
         <v>0</v>
       </c>
       <c r="CZ100">
-        <v>0</v>
+        <v>0.3216157205240175</v>
       </c>
       <c r="DA100">
-        <v>0</v>
+        <v>0.3216157205240175</v>
       </c>
     </row>
     <row r="101" spans="1:105">
@@ -36365,7 +36365,7 @@
         <v>0.7601078167115903</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -36479,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="AV111">
-        <v>0</v>
+        <v>74.82625482625483</v>
       </c>
       <c r="AW111">
         <v>0</v>
@@ -36593,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="CH111">
-        <v>0</v>
+        <v>0.9976833976833976</v>
       </c>
       <c r="CI111">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="DA111">
-        <v>0.01699783131117754</v>
+        <v>0.933309888048766</v>
       </c>
     </row>
     <row r="112" spans="1:105">
@@ -38901,7 +38901,7 @@
         <v>0.832183908045977</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -39015,7 +39015,7 @@
         <v>0</v>
       </c>
       <c r="AV119">
-        <v>0</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="AW119">
         <v>0</v>
@@ -39129,7 +39129,7 @@
         <v>0</v>
       </c>
       <c r="CH119">
-        <v>0</v>
+        <v>0.6775956284153005</v>
       </c>
       <c r="CI119">
         <v>0</v>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="DA119">
-        <v>0.1438290489018766</v>
+        <v>0.4863704853659649</v>
       </c>
     </row>
     <row r="120" spans="1:105">
